--- a/brynry_test_cases.xlsx
+++ b/brynry_test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tej koli\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B054C1F9-4E12-40EB-BA5A-D850BFAC6952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0A3132-9389-45B2-839B-E36B29ACF981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5DB5E218-3FF2-440D-A145-D0C3101B3D84}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="152">
   <si>
     <t>TC ID</t>
   </si>
@@ -416,12 +416,6 @@
     <t>TC_08</t>
   </si>
   <si>
-    <t>1.Internet should be active.</t>
-  </si>
-  <si>
-    <t>2.User should be Logged in</t>
-  </si>
-  <si>
     <t>Lays American Style cream &amp; Onion 110 gm</t>
   </si>
   <si>
@@ -483,6 +477,30 @@
   </si>
   <si>
     <t>Item Stock  is updated and displayed</t>
+  </si>
+  <si>
+    <t>TC_09</t>
+  </si>
+  <si>
+    <t>To test functionality adjusting stock of an item by Reducing Stock</t>
+  </si>
+  <si>
+    <t>Selected "reduce Stock " at top of Screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "Reduce Stock "  option be selected</t>
+  </si>
+  <si>
+    <t>"Reduce Stock " option be selected</t>
+  </si>
+  <si>
+    <t>Enter  Quantity  in "reduce quauntity"</t>
+  </si>
+  <si>
+    <t>"10" should be displayed</t>
+  </si>
+  <si>
+    <t>"10" is displayed</t>
   </si>
 </sst>
 </file>
@@ -892,10 +910,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFAD946-F100-440A-A9F4-FCD98C787020}">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G71" sqref="G71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2082,15 +2100,15 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
+    <row r="54" spans="1:9" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="C54" s="4" t="s">
-        <v>123</v>
+      <c r="B54" s="9" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="D54" s="1">
         <v>1</v>
@@ -2109,9 +2127,9 @@
       </c>
     </row>
     <row r="55" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C55" s="4" t="s">
-        <v>124</v>
-      </c>
+      <c r="A55" s="8"/>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
       <c r="D55" s="1">
         <v>2</v>
       </c>
@@ -2129,7 +2147,9 @@
       </c>
     </row>
     <row r="56" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="C56" s="4"/>
+      <c r="A56" s="8"/>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
       <c r="D56" s="1">
         <v>3</v>
       </c>
@@ -2137,119 +2157,131 @@
         <v>98</v>
       </c>
       <c r="F56" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G56" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H56" s="4" t="s">
         <v>125</v>
       </c>
-      <c r="G56" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="H56" s="4" t="s">
-        <v>127</v>
-      </c>
       <c r="I56" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C57" s="4"/>
+      <c r="A57" s="8"/>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
       <c r="D57" s="1">
         <v>4</v>
       </c>
       <c r="E57" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="H57" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I57" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C58" s="4"/>
+      <c r="A58" s="8"/>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
       <c r="D58" s="1">
         <v>5</v>
       </c>
       <c r="E58" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H58" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="G58" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="H58" s="1" t="s">
-        <v>133</v>
-      </c>
       <c r="I58" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C59" s="4"/>
+      <c r="A59" s="8"/>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
       <c r="D59" s="1">
         <v>6</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F59" s="7">
         <v>45372</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="I59" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="60" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C60" s="4"/>
+      <c r="A60" s="8"/>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
       <c r="D60" s="1">
         <v>7</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F60" s="1">
         <v>40</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="I60" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="C61" s="4"/>
+      <c r="A61" s="8"/>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
       <c r="D61" s="1">
         <v>8</v>
       </c>
       <c r="E61" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G61" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="G61" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H61" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="I61" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="C62" s="4"/>
+      <c r="A62" s="8"/>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
       <c r="D62" s="1">
         <v>9</v>
       </c>
@@ -2257,21 +2289,225 @@
         <v>91</v>
       </c>
       <c r="G62" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63" s="8" t="s">
         <v>144</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="B63" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="I62" s="1" t="s">
+      <c r="C63" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D63" s="1">
+        <v>1</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="8"/>
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="1">
+        <v>2</v>
+      </c>
+      <c r="E64" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G64" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H64" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="8"/>
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="1">
+        <v>3</v>
+      </c>
+      <c r="E65" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F65" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G65" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="H65" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A66" s="8"/>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="1">
+        <v>4</v>
+      </c>
+      <c r="E66" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="G66" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="H66" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="8"/>
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="1">
+        <v>5</v>
+      </c>
+      <c r="E67" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68" s="8"/>
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="1">
+        <v>6</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" s="7">
+        <v>45372</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I68" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A69" s="8"/>
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="1">
+        <v>7</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="F69" s="1">
+        <v>10</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70" s="8"/>
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="1">
+        <v>8</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="8"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="1">
+        <v>9</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="I71" s="1" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="26">
+    <mergeCell ref="A63:A71"/>
+    <mergeCell ref="B63:B71"/>
+    <mergeCell ref="C63:C71"/>
     <mergeCell ref="A46:A49"/>
     <mergeCell ref="A50:A53"/>
     <mergeCell ref="B50:B53"/>
     <mergeCell ref="C50:C53"/>
+    <mergeCell ref="A54:A62"/>
+    <mergeCell ref="B54:B62"/>
+    <mergeCell ref="C54:C62"/>
     <mergeCell ref="B29:B45"/>
     <mergeCell ref="C29:C45"/>
     <mergeCell ref="C46:C49"/>

--- a/brynry_test_cases.xlsx
+++ b/brynry_test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tej koli\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C0A3132-9389-45B2-839B-E36B29ACF981}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB59A856-40FE-4C44-91E8-80C355C5661F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{5DB5E218-3FF2-440D-A145-D0C3101B3D84}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="183">
   <si>
     <t>TC ID</t>
   </si>
@@ -501,6 +501,99 @@
   </si>
   <si>
     <t>"10" is displayed</t>
+  </si>
+  <si>
+    <t>TC_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 24 Mantra Organic Basmati Rice 1Kg</t>
+  </si>
+  <si>
+    <t>" 24 Mantra Organic Basmati Rice 1Kg" Should be displayed</t>
+  </si>
+  <si>
+    <t>" 24 Mantra Organic Basmati Rice 1Kg" displayed</t>
+  </si>
+  <si>
+    <t>PACKETS(PKT)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"PKT" should be selected </t>
+  </si>
+  <si>
+    <t>"PKT" is Selected</t>
+  </si>
+  <si>
+    <t>Measuring unit "PKT" should be Saved</t>
+  </si>
+  <si>
+    <t>Measuring unit "PKT" is Saved</t>
+  </si>
+  <si>
+    <t>"150.0" and "With tax " Should be displayed</t>
+  </si>
+  <si>
+    <t>"150.0" and "With tax " is displayed</t>
+  </si>
+  <si>
+    <t>"115.0" and "With tax " Should be displayed</t>
+  </si>
+  <si>
+    <t>"115.0" and "With tax " is displayed</t>
+  </si>
+  <si>
+    <t>"100"should displayed</t>
+  </si>
+  <si>
+    <t>"100"is displayed</t>
+  </si>
+  <si>
+    <t>To test functionality of  adding new item by Item Type "Product"</t>
+  </si>
+  <si>
+    <t>TC_11</t>
+  </si>
+  <si>
+    <t>To test functionality of  adding new item by Item Type "Service"</t>
+  </si>
+  <si>
+    <t>"Service" should be selected</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>"Service" is Selected</t>
+  </si>
+  <si>
+    <t>SERVICE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"SERVICE" should be selected </t>
+  </si>
+  <si>
+    <t>"SERVICE" is Selected</t>
+  </si>
+  <si>
+    <t>Measuring unit "SERVICE" should be Saved</t>
+  </si>
+  <si>
+    <t>Measuring unit "SERVICE" is Saved</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Bus Ticket Booking</t>
+  </si>
+  <si>
+    <t>"  Bus Ticket Booking" Should be displayed</t>
+  </si>
+  <si>
+    <t>" Bus Ticket Booking" displayed</t>
+  </si>
+  <si>
+    <t>"80.0" and "With tax " Should be displayed</t>
+  </si>
+  <si>
+    <t>"80.0" and "With tax " is displayed</t>
   </si>
 </sst>
 </file>
@@ -910,10 +1003,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBFAD946-F100-440A-A9F4-FCD98C787020}">
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:J102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A74" zoomScale="80" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G71" sqref="G71"/>
+    <sheetView tabSelected="1" topLeftCell="A89" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2495,6 +2588,542 @@
       <c r="I71" s="1" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="72" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C72" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D72" s="1">
+        <v>1</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D73" s="1">
+        <v>2</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H73" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D74" s="1">
+        <v>3</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G74" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D75" s="1">
+        <v>4</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="H75" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D76" s="1">
+        <v>5</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D77" s="1">
+        <v>6</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G77" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D78" s="1">
+        <v>7</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D79" s="1">
+        <v>8</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D80" s="1">
+        <v>9</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D81" s="1">
+        <v>10</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F81" s="1">
+        <v>150</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D82" s="1">
+        <v>11</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="F82" s="1">
+        <v>115</v>
+      </c>
+      <c r="G82" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D83" s="1">
+        <v>12</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I83" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D84" s="1">
+        <v>13</v>
+      </c>
+      <c r="E84" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G84" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I84" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D85" s="1">
+        <v>14</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F85" s="1">
+        <v>100</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I85" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D86" s="1">
+        <v>15</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F86" s="7">
+        <v>45371</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D87" s="1">
+        <v>16</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I87" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B88" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D88" s="1">
+        <v>1</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D89" s="1">
+        <v>2</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G89" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="H89" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I89" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="D90" s="1">
+        <v>3</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H90" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D91" s="1">
+        <v>4</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="G91" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H91" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D92" s="1">
+        <v>5</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F92" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I92" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D93" s="1">
+        <v>6</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I93" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D94" s="1">
+        <v>7</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I94" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D95" s="1">
+        <v>8</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F95" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="I95" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D96" s="1">
+        <v>9</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G96" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="97" spans="4:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D97" s="1">
+        <v>10</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F97" s="1">
+        <v>80</v>
+      </c>
+      <c r="G97" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="98" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D98" s="1">
+        <v>11</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="99" spans="4:9" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D99" s="1">
+        <v>12</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="G99" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="F102" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="26">
@@ -2529,8 +3158,10 @@
   <hyperlinks>
     <hyperlink ref="F24" r:id="rId1" display="GST@ 18%" xr:uid="{8797C173-9F91-4306-98D5-F6AC96D0E103}"/>
     <hyperlink ref="F41" r:id="rId2" display="GST@ 18%" xr:uid="{9FA5C2AB-1467-4B4D-87DA-FF1EFB539746}"/>
+    <hyperlink ref="F83" r:id="rId3" display="GST@ 18%" xr:uid="{6496AA0A-6891-4ADD-BD8F-D21E2B166BEE}"/>
+    <hyperlink ref="F98" r:id="rId4" display="GST@ 18%" xr:uid="{A733F614-90DF-4B27-93D3-F1C5BFB23D1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>